--- a/ClusterOversight.xlsx
+++ b/ClusterOversight.xlsx
@@ -478,61 +478,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AON</t>
+          <t>AJG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>WTW</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9623298439021065</v>
+        <v>0.9241385728782294</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1028338431253394</v>
+        <v>0.7330819931126087</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9048669289296306</v>
+        <v>0.9948012752887331</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9975325979692565</v>
+        <v>0.6913029326157746</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7975044194634193</v>
+        <v>0.165423191350179</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3326450380065146</v>
+        <v>0.8990479535705498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>BRO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AON</t>
+          <t>WTW</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9657091117319888</v>
+        <v>0.9097472141186467</v>
       </c>
       <c r="D3" t="n">
-        <v>0.100073378760585</v>
+        <v>0.5355755997733355</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9948012752887331</v>
+        <v>0.9975325979692565</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9048669289296306</v>
+        <v>0.6913029326157746</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3714655397054613</v>
+        <v>0.3779119866090953</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3852252068075139</v>
+        <v>0.9347848457383896</v>
       </c>
     </row>
     <row r="4">
@@ -568,31 +568,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>AON</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MMC</t>
+          <t>WTW</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9783479380831384</v>
+        <v>0.9189908896166797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2600292245963809</v>
+        <v>0.6616385184807054</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9948012752887331</v>
+        <v>0.9048669289296306</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9922189188275892</v>
+        <v>0.6913029326157746</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1903475230646941</v>
+        <v>0.8492948757379242</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2186635195045711</v>
+        <v>0.667027911391471</v>
       </c>
     </row>
     <row r="6">
@@ -603,146 +603,146 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>MMC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9241385728782294</v>
+        <v>0.9783479380831384</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7330819931126087</v>
+        <v>0.2600292245963809</v>
       </c>
       <c r="E6" t="n">
         <v>0.9948012752887331</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6913029326157746</v>
+        <v>0.9922189188275892</v>
       </c>
       <c r="G6" t="n">
-        <v>0.165423191350179</v>
+        <v>0.1903475230646941</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8990479535705498</v>
+        <v>0.2186635195045711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>AJG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>BRO</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>WTW</t>
-        </is>
-      </c>
       <c r="C7" t="n">
-        <v>0.9097472141186467</v>
+        <v>0.9771805473804041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5355755997733355</v>
+        <v>0.2982061204769986</v>
       </c>
       <c r="E7" t="n">
+        <v>0.9948012752887331</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.9975325979692565</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.6913029326157746</v>
-      </c>
       <c r="G7" t="n">
-        <v>0.3779119866090953</v>
+        <v>0.9681175598233733</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9347848457383896</v>
+        <v>0.224775862899768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>AJG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MMC</t>
+          <t>AON</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9777233743065304</v>
+        <v>0.9657091117319888</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1179100127470729</v>
+        <v>0.100073378760585</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9975325979692565</v>
+        <v>0.9948012752887331</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9922189188275892</v>
+        <v>0.9048669289296306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9587888911066282</v>
+        <v>0.3714655397054613</v>
       </c>
       <c r="H8" t="n">
-        <v>0.141549606418864</v>
+        <v>0.3852252068075139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>BRO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>MMC</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WTW</t>
-        </is>
-      </c>
       <c r="C9" t="n">
-        <v>0.8981858138266483</v>
+        <v>0.9777233743065304</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8417653326866769</v>
+        <v>0.1179100127470729</v>
       </c>
       <c r="E9" t="n">
+        <v>0.9975325979692565</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.9922189188275892</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.6913029326157746</v>
-      </c>
       <c r="G9" t="n">
-        <v>0.1817159148413596</v>
+        <v>0.9587888911066282</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8661209308406749</v>
+        <v>0.141549606418864</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>MMC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>WTW</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9771805473804041</v>
+        <v>0.8981858138266483</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2982061204769986</v>
+        <v>0.8417653326866769</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9948012752887331</v>
+        <v>0.9922189188275892</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9975325979692565</v>
+        <v>0.6913029326157746</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9681175598233733</v>
+        <v>0.1817159148413596</v>
       </c>
       <c r="H10" t="n">
-        <v>0.224775862899768</v>
+        <v>0.8661209308406749</v>
       </c>
     </row>
     <row r="11">
@@ -753,26 +753,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>BRO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9189908896166797</v>
+        <v>0.9623298439021065</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6616385184807054</v>
+        <v>0.1028338431253394</v>
       </c>
       <c r="E11" t="n">
         <v>0.9048669289296306</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6913029326157746</v>
+        <v>0.9975325979692565</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8492948757379242</v>
+        <v>0.7975044194634193</v>
       </c>
       <c r="H11" t="n">
-        <v>0.667027911391471</v>
+        <v>0.3326450380065146</v>
       </c>
     </row>
   </sheetData>

--- a/ClusterOversight.xlsx
+++ b/ClusterOversight.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsrwthaachende-my.sharepoint.com/personal/s3h4zdkzrzsmdp5k_students_rwth-aachen_de/Documents/Uni/Financial Data Science/Projekt/FDS-Project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_FCAC822DAA31921FD2FE31D2F8F2D3C2D4D8724B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD3A5AF9-AC9F-433E-9D5F-7CCB4F9AD59B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,16 +40,16 @@
     <t>ADF Ratio</t>
   </si>
   <si>
+    <t>AJG</t>
+  </si>
+  <si>
+    <t>AON</t>
+  </si>
+  <si>
     <t>BRO</t>
   </si>
   <si>
     <t>MMC</t>
-  </si>
-  <si>
-    <t>AON</t>
-  </si>
-  <si>
-    <t>AJG</t>
   </si>
   <si>
     <t>WTW</t>
@@ -64,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,25 +118,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +166,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -214,7 +200,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,10 +234,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,306 +409,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0.9783308121455663</v>
+      </c>
+      <c r="D2">
+        <v>0.4911114332253955</v>
+      </c>
+      <c r="E2">
+        <v>0.9357378392070181</v>
+      </c>
+      <c r="F2">
+        <v>0.7937987281152848</v>
+      </c>
+      <c r="G2">
+        <v>0.9566880159943438</v>
+      </c>
+      <c r="H2">
+        <v>0.219636075546533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.97939353966992915</v>
+        <v>0.9824845653663632</v>
       </c>
       <c r="D3">
-        <v>0.10282328469271219</v>
+        <v>0.01022602310131731</v>
       </c>
       <c r="E3">
-        <v>0.79379872811528485</v>
+        <v>0.6607273481177661</v>
       </c>
       <c r="F3">
         <v>0.8890788637003646</v>
       </c>
       <c r="G3">
-        <v>0.80894911966435057</v>
+        <v>0.3152689615715504</v>
       </c>
       <c r="H3">
-        <v>6.6212807082285677E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.02627131556471858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0.9851396016851091</v>
+      </c>
+      <c r="D4">
+        <v>0.1522992675389448</v>
+      </c>
+      <c r="E4">
+        <v>0.9357378392070181</v>
+      </c>
+      <c r="F4">
+        <v>0.8890788637003646</v>
+      </c>
+      <c r="G4">
+        <v>0.3774862023282738</v>
+      </c>
+      <c r="H4">
+        <v>0.3477551155967602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5">
+        <v>0.9729468769881219</v>
+      </c>
+      <c r="D5">
+        <v>0.120383968228623</v>
+      </c>
+      <c r="E5">
+        <v>0.9357378392070181</v>
+      </c>
+      <c r="F5">
+        <v>0.6607273481177661</v>
+      </c>
+      <c r="G5">
+        <v>0.1579442474173539</v>
+      </c>
+      <c r="H5">
+        <v>0.556873642282281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>0.87911467727808712</v>
-      </c>
-      <c r="D4">
-        <v>0.88912526215840604</v>
-      </c>
-      <c r="E4">
+      <c r="C6">
+        <v>0.9000774062085912</v>
+      </c>
+      <c r="D6">
+        <v>0.7079820052930343</v>
+      </c>
+      <c r="E6">
+        <v>0.6607273481177661</v>
+      </c>
+      <c r="F6">
+        <v>0.4294676219203197</v>
+      </c>
+      <c r="G6">
+        <v>0.8080862447927387</v>
+      </c>
+      <c r="H6">
+        <v>0.7433111423230017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.9793935396699291</v>
+      </c>
+      <c r="D7">
+        <v>0.1028232846927122</v>
+      </c>
+      <c r="E7">
+        <v>0.7937987281152848</v>
+      </c>
+      <c r="F7">
         <v>0.8890788637003646</v>
       </c>
-      <c r="F4">
-        <v>0.42946762192031968</v>
-      </c>
-      <c r="G4">
-        <v>0.39985918148239868</v>
-      </c>
-      <c r="H4">
-        <v>0.91520539894440389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G7">
+        <v>0.8089491196643506</v>
+      </c>
+      <c r="H7">
+        <v>0.06621280708228568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0.90007740620859122</v>
-      </c>
-      <c r="D5">
-        <v>0.70798200529303434</v>
-      </c>
-      <c r="E5">
-        <v>0.66072734811776612</v>
-      </c>
-      <c r="F5">
-        <v>0.42946762192031968</v>
-      </c>
-      <c r="G5">
-        <v>0.80808624479273872</v>
-      </c>
-      <c r="H5">
-        <v>0.74331114232300166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0.97294687698812188</v>
-      </c>
-      <c r="D6">
-        <v>0.120383968228623</v>
-      </c>
-      <c r="E6">
-        <v>0.93573783920701814</v>
-      </c>
-      <c r="F6">
-        <v>0.66072734811776612</v>
-      </c>
-      <c r="G6">
-        <v>0.15794424741735391</v>
-      </c>
-      <c r="H6">
-        <v>0.55687364228228098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>0.88753623541933258</v>
-      </c>
-      <c r="D7">
-        <v>0.43780315333389319</v>
-      </c>
-      <c r="E7">
-        <v>0.79379872811528485</v>
-      </c>
-      <c r="F7">
-        <v>0.42946762192031968</v>
-      </c>
-      <c r="G7">
-        <v>0.2552669771730971</v>
-      </c>
-      <c r="H7">
-        <v>0.85081435029830821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.89183902298269779</v>
+        <v>0.8875362354193326</v>
       </c>
       <c r="D8">
-        <v>0.95228579044112405</v>
+        <v>0.4378031533338932</v>
       </c>
       <c r="E8">
-        <v>0.93573783920701814</v>
+        <v>0.7937987281152848</v>
       </c>
       <c r="F8">
-        <v>0.42946762192031968</v>
+        <v>0.4294676219203197</v>
       </c>
       <c r="G8">
-        <v>0.79126140917450016</v>
+        <v>0.2552669771730971</v>
       </c>
       <c r="H8">
-        <v>0.98495048292394849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.8508143502983082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0.8918390229826978</v>
+      </c>
+      <c r="D9">
+        <v>0.952285790441124</v>
+      </c>
+      <c r="E9">
+        <v>0.9357378392070181</v>
+      </c>
+      <c r="F9">
+        <v>0.4294676219203197</v>
+      </c>
+      <c r="G9">
+        <v>0.7912614091745002</v>
+      </c>
+      <c r="H9">
+        <v>0.9849504829239485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0.8791146772780871</v>
+      </c>
+      <c r="D10">
+        <v>0.889125262158406</v>
+      </c>
+      <c r="E10">
+        <v>0.8890788637003646</v>
+      </c>
+      <c r="F10">
+        <v>0.4294676219203197</v>
+      </c>
+      <c r="G10">
+        <v>0.3998591814823987</v>
+      </c>
+      <c r="H10">
+        <v>0.9152053989444039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>0.98513960168510906</v>
-      </c>
-      <c r="D9">
-        <v>0.15229926753894479</v>
-      </c>
-      <c r="E9">
-        <v>0.93573783920701814</v>
-      </c>
-      <c r="F9">
-        <v>0.8890788637003646</v>
-      </c>
-      <c r="G9">
-        <v>0.37748620232827379</v>
-      </c>
-      <c r="H9">
-        <v>0.3477551155967602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>0.98248456536636319</v>
-      </c>
-      <c r="D10">
-        <v>1.0226023101317309E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.66072734811776612</v>
-      </c>
-      <c r="F10">
-        <v>0.8890788637003646</v>
-      </c>
-      <c r="G10">
-        <v>0.31526896157155038</v>
-      </c>
-      <c r="H10">
-        <v>2.6271315564718581E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
       <c r="C11">
-        <v>0.97125667031925245</v>
+        <v>0.9712566703192524</v>
       </c>
       <c r="D11">
-        <v>3.4405533320821143E-2</v>
+        <v>0.03440553332082114</v>
       </c>
       <c r="E11">
-        <v>0.66072734811776612</v>
+        <v>0.6607273481177661</v>
       </c>
       <c r="F11">
-        <v>0.79379872811528485</v>
+        <v>0.7937987281152848</v>
       </c>
       <c r="G11">
-        <v>0.62251193906895708</v>
+        <v>0.6225119390689571</v>
       </c>
       <c r="H11">
-        <v>0.20764733493553941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>0.97833081214556628</v>
-      </c>
-      <c r="D12">
-        <v>0.49111143322539552</v>
-      </c>
-      <c r="E12">
-        <v>0.93573783920701814</v>
-      </c>
-      <c r="F12">
-        <v>0.79379872811528485</v>
-      </c>
-      <c r="G12">
-        <v>0.95668801599434383</v>
-      </c>
-      <c r="H12">
-        <v>0.219636075546533</v>
+        <v>0.2076473349355394</v>
       </c>
     </row>
   </sheetData>
